--- a/Copia3.xlsx
+++ b/Copia3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Numero</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Cubo</t>
+  </si>
+  <si>
+    <t>SUMATORIA</t>
   </si>
 </sst>
 </file>
@@ -445,8 +448,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/Copia3.xlsx
+++ b/Copia3.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Raices" sheetId="1" r:id="rId1"/>
-    <sheet name="Sumatoria" sheetId="2" r:id="rId2"/>
+    <sheet name="ORIGINAL" sheetId="1" r:id="rId1"/>
+    <sheet name="RAIZ CUADRADA" sheetId="2" r:id="rId2"/>
+    <sheet name="SUMATORIA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Numero</t>
   </si>
@@ -403,35 +404,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.414213562373095</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.82842712474619</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2.449489742783178</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>14.69693845669907</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -440,6 +441,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2.82842712474619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2.449489742783178</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>14.69693845669907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
